--- a/testing/Test Cases.xlsx
+++ b/testing/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="153">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -630,9 +630,6 @@
     <t>Biding (add)</t>
   </si>
   <si>
-    <t>Validate that student can add a bid successfully by keying in a correct course code and section in round 1</t>
-  </si>
-  <si>
     <t>Validate that in round1 , student cannot bid a module which is not offered by his own school</t>
   </si>
   <si>
@@ -686,6 +683,24 @@
   </si>
   <si>
     <t>Login Failed with error meassage displayed "Incorrect userid or password!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that student cannot add a module which class timelot for that section clash with that of a previous bidded section </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that student cannot add a module which exam timelot for that section clash with that of a previous bidded section </t>
+  </si>
+  <si>
+    <t>Validate that stduent cannot add a module as he has not compeleted the prerequisite for that module</t>
+  </si>
+  <si>
+    <t>Validate that student cannot add a module which he has completed</t>
+  </si>
+  <si>
+    <t>Bidding(add - round 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that student cannot add a module </t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1067,7 @@
   <dimension ref="A1:AA999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10351,8 +10366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10427,7 +10442,7 @@
         <v>89</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>91</v>
@@ -10436,10 +10451,10 @@
         <v>92</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10453,7 +10468,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>91</v>
@@ -10462,10 +10477,10 @@
         <v>97</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -10488,10 +10503,10 @@
         <v>98</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10505,7 +10520,7 @@
         <v>114</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>91</v>
@@ -10514,10 +10529,10 @@
         <v>97</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10531,7 +10546,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>91</v>
@@ -10540,10 +10555,10 @@
         <v>98</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10557,7 +10572,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>91</v>
@@ -10566,10 +10581,10 @@
         <v>101</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10583,7 +10598,7 @@
         <v>95</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>91</v>
@@ -10592,10 +10607,10 @@
         <v>102</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10618,10 +10633,10 @@
         <v>104</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10644,10 +10659,10 @@
         <v>105</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -10661,7 +10676,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>91</v>
@@ -10670,10 +10685,10 @@
         <v>112</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="63.75" x14ac:dyDescent="0.2">
@@ -10687,7 +10702,7 @@
         <v>111</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>91</v>
@@ -10696,10 +10711,10 @@
         <v>113</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -10713,7 +10728,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10861,10 +10876,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10929,7 +10944,7 @@
         <v>128</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
@@ -10937,7 +10952,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
@@ -10945,31 +10960,31 @@
         <v>128</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
@@ -10977,7 +10992,46 @@
         <v>128</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/testing/Test Cases.xlsx
+++ b/testing/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,13 @@
     <sheet name="literation2" sheetId="3" r:id="rId3"/>
     <sheet name="Add Bid" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="177">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -606,27 +607,6 @@
     <t>Browse and select "SampleData(0).csv" zip file from project-g6t6 folder. Import.</t>
   </si>
   <si>
-    <t>Bootstrap(student.csv)</t>
-  </si>
-  <si>
-    <t>Validate that the bootstrap data file with complete csv files  is loaded successfully</t>
-  </si>
-  <si>
-    <t>Validate that  bootstrap data file with missing csv file is loaded unsuccessfully</t>
-  </si>
-  <si>
-    <t>Validate that the bootstrap data file with blank field in csv file is loaded unsucessfully</t>
-  </si>
-  <si>
-    <t>Validate that the boostrap data file with invalid userid which exceed 128 characters in student.csv is loaded unsuccessfully</t>
-  </si>
-  <si>
-    <t>Validate that the bootstrap data file with two same existing userid in student.csv is loaded unsuccessfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that  the bootstrap data file with a non-numeric value in e-dollar field </t>
-  </si>
-  <si>
     <t>Biding (add)</t>
   </si>
   <si>
@@ -701,13 +681,153 @@
   </si>
   <si>
     <t xml:space="preserve">Validate that student cannot add a module </t>
+  </si>
+  <si>
+    <t>Validate that the bootstrap data file with complete csv files is loaded successfully</t>
+  </si>
+  <si>
+    <t>Validate that the bootstrap data file with missing csv file is not loaded successfully</t>
+  </si>
+  <si>
+    <t>Bootstrap(Student.csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the student csv file is not loaded successfully  with duplicate userid, incorrect e-dollar amount, empty password and userid. </t>
+  </si>
+  <si>
+    <t>Browse and select "SampleData(1).csv" zip file from project-g6t6 folder. Import.</t>
+  </si>
+  <si>
+    <t>Bootstrap(Course.csv)</t>
+  </si>
+  <si>
+    <t>Bootstrap(prerequisite.csv)</t>
+  </si>
+  <si>
+    <t>Bootstrap(Section.csv)</t>
+  </si>
+  <si>
+    <t>Bootstrap(Course_completed.csv)</t>
+  </si>
+  <si>
+    <t>Bootstrap(Bid.csv)</t>
+  </si>
+  <si>
+    <t>Validate that the Bid csv file is not loaded successfully. 
+1 .User has more than 5 bids.
+2. User has completed the course
+3. User has insufficient e-dollar to bid that section
+4. User has not completed the prererquisites for that course
+5. User's class timetable and exam timetable of previous bid clash with current bid
+6. User bid a module which is not provided by his school</t>
+  </si>
+  <si>
+    <t>rows loaded:
+student.csv :0
+course.csv :0
+section.csv:0
+prerequisite.csv:0
+course_completed.csv :0
+Error Message: File not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rows loaded for student csv: 21
+-row2 : 'blank password';
+-row3 : 'invalid userid' [exceed 128 characters];
+-row4 : 'invalid password' [exceed 128 characters];
+-row5 : 'invalid name'[exceed 100 characters] , 'invalid e-dollar'[value with more than 2 decimals];
+-row6 : 'invalid e-dollar'[negative value];
+-row7 : 'duplicate userid' [two same userid];
+-row20 : 'blank userid','blank name','blank school','blank edollar';
+</t>
+  </si>
+  <si>
+    <t>SampleData(1).zip</t>
+  </si>
+  <si>
+    <t>Validate that the course csv file is not loaded successfully as exam date, exam start and end time are written in an incorrect format, one course description filed exceed 100 characters and one course title exceed 100 characters. File has empty  field and exam end time is  not later than the exam start time.</t>
+  </si>
+  <si>
+    <t>row loaded successfully for course.csv:17
+-row 2: 'invalid exam date', 'invalid exam start','invalid exam end'[incorrect format];
+-row 3: 'invalid title', 'invalid description'[exceed 100 characters];
+-row 4: 'invalid description'[exceed 100 characters];
+-row 6: 'invalid exam date'[incorrect format];
+-row 15: 'blank course';
+-row 16: 'blank school','blank exam date','blank end time';
+-row 17: 'invalid exam end' [exam start time is later than end time]</t>
+  </si>
+  <si>
+    <t>SampleData(2).zip</t>
+  </si>
+  <si>
+    <t>SampleData(3).zip</t>
+  </si>
+  <si>
+    <t>SampleData(4).zip</t>
+  </si>
+  <si>
+    <t>Browse and select "SampleData(2).csv" zip file from project-g6t6 folder. Import.</t>
+  </si>
+  <si>
+    <t>Browse and select "SampleData(3).csv" zip file from project-g6t6 folder. Import.</t>
+  </si>
+  <si>
+    <t>Browse and select "SampleData(4).csv" zip file from project-g6t6 folder. Import.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the section csv file is not loaded successfully with empty field. File has invalid course which is not found in course file. Start and end time are written in an incorrect format and end tiem is not later than start time. Section name is not started with 'S'. Instructor name and venue exceed 100 characters. Size of section is not a positive number. </t>
+  </si>
+  <si>
+    <t>Validate that the prerequisite csv file is not loaded successfully with empty course and code field, not found course and prerequisite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the course_completed csv file is not loaded succefully with empty userid and code field, not found userid and course code. File has invalid input as user does not fulfil the prerequisite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the Bid csv file is not loaded successfully with empty fields. Userid is not found in student csv. The amount is less than 10 or not an positive value or has more than 2 decimal places. Course and section is not found in the course and section file. Course does not have the specific section. </t>
+  </si>
+  <si>
+    <t>row loaded successfullly for prerequisite csv: 3
+-row 2: 'prerequisite field blank';
+-row 3: 'invalid course'[course not found in course csv];
+-row 4: 'invalid prerequisite' [course not found in course csv];
+-row 7: 'invalid course', 'invalid prerequisite';
+-row 8: 'course field blank';</t>
+  </si>
+  <si>
+    <t>rows loaded successfully for section csv: 26
+-row 2: 'invalid course'[course is not found in course csv];
+-row 3: 'invalid section' [section is not start with 'S'];
+-row 5: 'invalid start'[Not a time value];
+-row 6: 'invalid instructor' [exceed 100 characters];
+-row 7: 'invalid venue'[exceed 100 characters];
+-row 8: 'invalid start'[start time is later than end time];
+-row 9:'invalid size'[negative value];
+-row 10: 'invalid day'[incorrect format];
+-row 16: 'blank course','blank section','blank instructor';</t>
+  </si>
+  <si>
+    <t>SampleData(5).zip</t>
+  </si>
+  <si>
+    <t>Browse and select "SampleData(5).csv" zip file from project-g6t6 folder. Import.</t>
+  </si>
+  <si>
+    <t>rows successfully loaded for course_competed.csv: 2
+-row 2: 'invalid course'[course not found in course csv];
+-row 3: 'blank course';
+-row 4: 'invalid course completed'[the pre-requisite course has yet to be attempted];
+-row 7: 'invalid userid'[userid(case-insensitive) not found in student csv];
+-row 8: 'invalid userid'[userid not found in student csv];
+-row 9: 'blank userid';</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -727,6 +847,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -755,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -785,6 +911,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10366,8 +10495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10442,7 +10571,7 @@
         <v>89</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>91</v>
@@ -10451,10 +10580,10 @@
         <v>92</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10468,7 +10597,7 @@
         <v>103</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>91</v>
@@ -10477,10 +10606,10 @@
         <v>97</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -10503,10 +10632,10 @@
         <v>98</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10520,7 +10649,7 @@
         <v>114</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>91</v>
@@ -10529,10 +10658,10 @@
         <v>97</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10546,7 +10675,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>91</v>
@@ -10555,10 +10684,10 @@
         <v>98</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10572,7 +10701,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>91</v>
@@ -10581,10 +10710,10 @@
         <v>101</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10598,7 +10727,7 @@
         <v>95</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>91</v>
@@ -10607,10 +10736,10 @@
         <v>102</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10633,10 +10762,10 @@
         <v>104</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10659,10 +10788,10 @@
         <v>105</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -10676,7 +10805,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>91</v>
@@ -10685,10 +10814,10 @@
         <v>112</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="63.75" x14ac:dyDescent="0.2">
@@ -10702,7 +10831,7 @@
         <v>111</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>91</v>
@@ -10711,10 +10840,10 @@
         <v>113</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -10725,10 +10854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10796,7 +10925,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>116</v>
@@ -10808,7 +10937,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10816,7 +10945,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>119</v>
@@ -10824,53 +10953,135 @@
       <c r="E3" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F3" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="307.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>127</v>
+        <v>169</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="153" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10878,8 +11089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10941,97 +11152,97 @@
     </row>
     <row r="2" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
